--- a/flux_indicators.xlsx
+++ b/flux_indicators.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11700" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="flux_indicator" sheetId="1" r:id="rId1"/>
-    <sheet name="flux_indicator_source" sheetId="3" r:id="rId2"/>
-    <sheet name="flux_indicator_sink" sheetId="4" r:id="rId3"/>
-    <sheet name="simulation_process" sheetId="7" r:id="rId4"/>
-    <sheet name="flux_simulation_process" sheetId="2" r:id="rId5"/>
-    <sheet name="composite_flux_indicator" sheetId="5" r:id="rId6"/>
-    <sheet name="composite_flux_indicator_value" sheetId="6" r:id="rId7"/>
+    <sheet name="pool" sheetId="8" r:id="rId1"/>
+    <sheet name="pool_translation" sheetId="11" r:id="rId2"/>
+    <sheet name="simulation_process" sheetId="7" r:id="rId3"/>
+    <sheet name="flux_indicator" sheetId="1" r:id="rId4"/>
+    <sheet name="flux_indicator_source" sheetId="3" r:id="rId5"/>
+    <sheet name="flux_indicator_sink" sheetId="4" r:id="rId6"/>
+    <sheet name="composite_flux_indicator" sheetId="5" r:id="rId7"/>
+    <sheet name="composite_flux_indicator_value" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="226">
   <si>
     <t>DeltaBiomass_AG</t>
   </si>
@@ -113,9 +114,6 @@
     <t>HardwoodBranchSnag</t>
   </si>
   <si>
-    <t>CBM3 Disturbance</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -407,12 +405,6 @@
     <t>DecayHWStemSnagToAir</t>
   </si>
   <si>
-    <t>CBM3 Growth and Turnover</t>
-  </si>
-  <si>
-    <t>CBM3 Decay</t>
-  </si>
-  <si>
     <t>simulation_process_id</t>
   </si>
   <si>
@@ -453,6 +445,270 @@
   </si>
   <si>
     <t>source_pool_name</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>pool_id</t>
+  </si>
+  <si>
+    <t>Growth and Turnover</t>
+  </si>
+  <si>
+    <t>Disturbance</t>
+  </si>
+  <si>
+    <t>Decay</t>
+  </si>
+  <si>
+    <t>en-CA</t>
+  </si>
+  <si>
+    <t>fr-CA</t>
+  </si>
+  <si>
+    <t>es-MX</t>
+  </si>
+  <si>
+    <t>ru-RU</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Softwood Merchantable</t>
+  </si>
+  <si>
+    <t>Softwood Foliage</t>
+  </si>
+  <si>
+    <t>Softwood Other</t>
+  </si>
+  <si>
+    <t>Softwood Coarse Roots</t>
+  </si>
+  <si>
+    <t>Softwood Fine Roots</t>
+  </si>
+  <si>
+    <t>Hardwood Merchantable</t>
+  </si>
+  <si>
+    <t>Hardwood Foliage</t>
+  </si>
+  <si>
+    <t>Hardwood Other</t>
+  </si>
+  <si>
+    <t>Hardwood Coarse roots</t>
+  </si>
+  <si>
+    <t>Hardwood Fine Roots</t>
+  </si>
+  <si>
+    <t>Coníferas comerciables</t>
+  </si>
+  <si>
+    <t>Follaje de coníferas</t>
+  </si>
+  <si>
+    <t>Otras coníferas</t>
+  </si>
+  <si>
+    <t>Raíces gruesas de coníferas</t>
+  </si>
+  <si>
+    <t>Raíces finas de coníferas</t>
+  </si>
+  <si>
+    <t>Caducifolios comerciables</t>
+  </si>
+  <si>
+    <t>Follaje de caducifolios</t>
+  </si>
+  <si>
+    <t>Otro de caducifolios</t>
+  </si>
+  <si>
+    <t>Raíces gruesas de caducifolios</t>
+  </si>
+  <si>
+    <t>Raíces finas de caducifolios</t>
+  </si>
+  <si>
+    <t>MOM muy rápida superficial</t>
+  </si>
+  <si>
+    <t>MOM muy rápida subterránea</t>
+  </si>
+  <si>
+    <t>MOM rápida superficial</t>
+  </si>
+  <si>
+    <t>MOM rápida subterránea</t>
+  </si>
+  <si>
+    <t>MOM regular</t>
+  </si>
+  <si>
+    <t>MOM superficial lenta</t>
+  </si>
+  <si>
+    <t>MOM subterránea lenta</t>
+  </si>
+  <si>
+    <t>Troncos muertos de coníferas</t>
+  </si>
+  <si>
+    <t>Ramas muertas de coníferas</t>
+  </si>
+  <si>
+    <t>Troncos muertos de caducifolios</t>
+  </si>
+  <si>
+    <t>Ramas muertas de caducifolios</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Résineux marchand</t>
+  </si>
+  <si>
+    <t>Résineux feuillage</t>
+  </si>
+  <si>
+    <t>Résineux autre</t>
+  </si>
+  <si>
+    <t>Résineux grosses racines</t>
+  </si>
+  <si>
+    <t>Résineux radicelles</t>
+  </si>
+  <si>
+    <t>Feuillu marchand</t>
+  </si>
+  <si>
+    <t>Feuillu feuillage</t>
+  </si>
+  <si>
+    <t>Feuillu autre</t>
+  </si>
+  <si>
+    <t>Feuillu grosses racines</t>
+  </si>
+  <si>
+    <t>Feuillu radicelles</t>
+  </si>
+  <si>
+    <t>MOM aérienne très rapide</t>
+  </si>
+  <si>
+    <t>MOM souterraine très rapide</t>
+  </si>
+  <si>
+    <t>MOM aérienne rapide</t>
+  </si>
+  <si>
+    <t>MOM souterraine rapide</t>
+  </si>
+  <si>
+    <t>MOM médium</t>
+  </si>
+  <si>
+    <t>MOM aérienne lente</t>
+  </si>
+  <si>
+    <t>MOM souterraine lente</t>
+  </si>
+  <si>
+    <t>Chicot de tige de résineux</t>
+  </si>
+  <si>
+    <t>Chicot de branche de résineux</t>
+  </si>
+  <si>
+    <t>Chicot de tige de feuillu</t>
+  </si>
+  <si>
+    <t>Chicot de branche de feuillu</t>
+  </si>
+  <si>
+    <t>Produits</t>
+  </si>
+  <si>
+    <t>Товарная хвойная древесина</t>
+  </si>
+  <si>
+    <t>Хвоя</t>
+  </si>
+  <si>
+    <t>Хвойные прочее</t>
+  </si>
+  <si>
+    <t>Крупные корни хвойных</t>
+  </si>
+  <si>
+    <t>Тонкие корни хвойных</t>
+  </si>
+  <si>
+    <t>Деловая древесина лиственных пород</t>
+  </si>
+  <si>
+    <t>Листва лиственных пород</t>
+  </si>
+  <si>
+    <t>Другие лиственные породы</t>
+  </si>
+  <si>
+    <t>Крупные корни лиственных пород</t>
+  </si>
+  <si>
+    <t>Тонкие корни лиственных пород</t>
+  </si>
+  <si>
+    <t>Надземное очень быстро разлагающееся МОВ</t>
+  </si>
+  <si>
+    <t>Подземное очень быстро разлагающееся МОВ</t>
+  </si>
+  <si>
+    <t>Надземное быстро разлагающеея МОВ</t>
+  </si>
+  <si>
+    <t>Подземное быстро разлагающееся МОВ</t>
+  </si>
+  <si>
+    <t>МОВ со средней скоростью разложения</t>
+  </si>
+  <si>
+    <t>Надземное медленно разлагающееся МОВ</t>
+  </si>
+  <si>
+    <t>Подземное медленно разлагающееся МОВ</t>
+  </si>
+  <si>
+    <t>Валеж стволов хвойных пород</t>
+  </si>
+  <si>
+    <t>Валеж ветвей хвойных</t>
+  </si>
+  <si>
+    <t>Валеж стволов лиственных пород</t>
+  </si>
+  <si>
+    <t>Валеж ветвей лиственных пород</t>
+  </si>
+  <si>
+    <t>Продукты</t>
   </si>
 </sst>
 </file>
@@ -633,15 +889,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -655,6 +902,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,8 +922,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,600 +1202,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="B28" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1549,10 +1444,2678 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G96" sqref="G95:G96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>22</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>26</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>20</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>21</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>26</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>14</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>19</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>20</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>21</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>22</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>23</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>25</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>26</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D53" ca="1" si="0">INDIRECT(CONCATENATE("simulation_process!B$",C2+1))</f>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Growth and Turnover</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Decay</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Disturbance</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -3530,7 +6093,7 @@
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,7 +6108,7 @@
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,11 +7398,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A71" sqref="A71:D71"/>
     </sheetView>
   </sheetViews>
@@ -4862,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,7 +7440,7 @@
         <v>DisturbanceCO2Production</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,7 +7455,7 @@
         <v>DisturbanceCH4Production</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,7 +7470,7 @@
         <v>DisturbanceCOProduction</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4922,7 +7485,7 @@
         <v>DisturbanceBioCO2Emission</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,7 +7500,7 @@
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,7 +7515,7 @@
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,7 +7530,7 @@
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,7 +7545,7 @@
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,7 +7560,7 @@
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,7 +7575,7 @@
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,7 +7890,7 @@
         <v>DecayVFastAGToAir</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,7 +7905,7 @@
         <v>DecayVFastBGToAir</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,7 +7920,7 @@
         <v>DecayFastAGToAir</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5372,7 +7935,7 @@
         <v>DecayFastBGToAir</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,7 +7950,7 @@
         <v>DecayMediumToAir</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,7 +7965,7 @@
         <v>DecaySlowAGToAir</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,7 +7980,7 @@
         <v>DecaySlowBGToAir</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,7 +7995,7 @@
         <v>DecaySWStemSnagToAir</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,7 +8010,7 @@
         <v>DecaySWBranchSnagToAir</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,7 +8025,7 @@
         <v>DecayHWStemSnagToAir</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,7 +8040,7 @@
         <v>DecayHWBranchSnagToAir</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5492,7 +8055,7 @@
         <v>DisturbanceMerchToAir</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,7 +8070,7 @@
         <v>DisturbanceFolToAir</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,7 +8085,7 @@
         <v>DisturbanceOthToAir</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,7 +8100,7 @@
         <v>DisturbanceCoarseToAir</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5552,7 +8115,7 @@
         <v>DisturbanceFineToAir</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5567,7 +8130,7 @@
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,7 +8145,7 @@
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5597,7 +8160,7 @@
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5762,7 +8325,7 @@
         <v>DisturbanceVFastAGToAir</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,7 +8340,7 @@
         <v>DisturbanceVFastBGToAir</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,7 +8355,7 @@
         <v>DisturbanceFastAGToAir</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,7 +8370,7 @@
         <v>DisturbanceFastBGToAir</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5822,7 +8385,7 @@
         <v>DisturbanceMediumToAir</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,7 +8400,7 @@
         <v>DisturbanceSlowAGToAir</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5852,7 +8415,7 @@
         <v>DisturbanceSlowBGToAir</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5867,7 +8430,7 @@
         <v>DisturbanceSWStemSnagToAir</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,7 +8445,7 @@
         <v>DisturbanceSWBranchSnagToAir</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,7 +8460,7 @@
         <v>DisturbanceHWStemSnagToAir</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5912,7 +8475,7 @@
         <v>DisturbanceHWBranchSnagToAir</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5920,1092 +8483,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D33" ca="1" si="0">INDIRECT(CONCATENATE("flux_indicator!B$",B2+1))</f>
-        <v>DisturbanceCO2Production</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E33" ca="1" si="1">INDIRECT(CONCATENATE("simulation_process!B$",C2+1))</f>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceCH4Production</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceCOProduction</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceBioCO2Emission</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceBioCH4Emission</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceBioCOEmission</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayDOMCO2Emission</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceSoftProduction</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceHardProduction</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceDOMProduction</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DeltaBiomass_AG</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DeltaBiomass_BG</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>TurnoverMerchLitterInput</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>TurnoverFolLitterInput</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>TurnoverOthLitterInput</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>TurnoverCoarseLitterInput</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>TurnoverFineLitterInput</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Growth and Turnover</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayVFastAGToAir</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayVFastBGToAir</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayFastAGToAir</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayFastBGToAir</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayMediumToAir</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecaySlowAGToAir</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecaySlowBGToAir</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecaySWStemSnagToAir</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecaySWBranchSnagToAir</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayHWStemSnagToAir</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DecayHWBranchSnagToAir</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Decay</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceMerchToAir</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceFolToAir</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceOthToAir</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>DisturbanceCoarseToAir</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" ref="D34:D53" ca="1" si="2">INDIRECT(CONCATENATE("flux_indicator!B$",B34+1))</f>
-        <v>DisturbanceFineToAir</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" ref="E34:E53" ca="1" si="3">INDIRECT(CONCATENATE("simulation_process!B$",C34+1))</f>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceDOMCO2Emission</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceDOMCH4Emssion</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceDOMCOEmission</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceMerchLitterInput</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceFolLitterInput</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceOthLitterInput</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceCoarseLitterInput</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceFineLitterInput</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceVFastAGToAir</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceVFastBGToAir</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceFastAGToAir</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceFastBGToAir</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceMediumToAir</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>47</v>
-      </c>
-      <c r="C48" s="1">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceSlowAGToAir</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceSlowBGToAir</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceSWStemSnagToAir</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>50</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceSWBranchSnagToAir</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceHWStemSnagToAir</v>
-      </c>
-      <c r="E52" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>DisturbanceHWBranchSnagToAir</v>
-      </c>
-      <c r="E53" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>CBM3 Disturbance</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -7020,7 +8502,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +8518,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +8526,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +8534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +8542,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +8550,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +8558,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +8566,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +8574,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +8582,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +8590,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +8606,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +8614,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +8622,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +8630,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +8638,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +8646,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +8654,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +8662,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +8670,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +8686,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +8694,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +8702,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +8710,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +8718,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +8726,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +8734,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +8742,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +8750,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +8758,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +8766,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +8774,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +8782,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +8790,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +8798,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +8806,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +8814,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +8822,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +8830,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +8838,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +8846,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +8854,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +8862,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7388,12 +8870,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -7422,13 +8904,13 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -7442,20 +8924,20 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C2+1))</f>
+        <f t="shared" ref="D2:D9" ca="1" si="0">INDIRECT(CONCATENATE("flux_indicator!B$",C2+1))</f>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>80</v>
+      <c r="I2" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7463,27 +8945,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="str">
-        <f t="shared" ref="B3:B29" ca="1" si="0">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A3+1))</f>
+        <f t="shared" ref="B3:B29" ca="1" si="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A3+1))</f>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C3" s="6">
         <v>13</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C3+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E3" s="6">
         <v>-1</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="H3" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G3+1))</f>
         <v>DeltaBiomass_AG</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7492,27 +8974,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C4" s="6">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C4+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E4" s="6">
         <v>-1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>13</v>
       </c>
-      <c r="H4" s="13" t="str">
+      <c r="H4" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G4+1))</f>
         <v>TurnoverMerchLitterInput</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>-1</v>
       </c>
     </row>
@@ -7521,27 +9003,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C5" s="6">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C5+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E5" s="6">
         <v>-1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>14</v>
       </c>
-      <c r="H5" s="13" t="str">
+      <c r="H5" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G5+1))</f>
         <v>TurnoverFolLitterInput</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>-1</v>
       </c>
     </row>
@@ -7550,27 +9032,27 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C6+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>15</v>
       </c>
-      <c r="H6" s="16" t="str">
+      <c r="H6" s="13" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G6+1))</f>
         <v>TurnoverOthLitterInput</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>-1</v>
       </c>
     </row>
@@ -7579,14 +9061,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C7" s="6">
         <v>16</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C7+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E7" s="6">
@@ -7601,51 +9083,51 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C8" s="6">
         <v>17</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C8+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E8" s="6">
         <v>-1</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C9+1))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>DisturbanceBioCO2Emission</v>
       </c>
       <c r="E9" s="6">
         <v>-1</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>80</v>
+      <c r="I9" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7653,27 +9135,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f t="shared" ref="D10:D17" ca="1" si="1">INDIRECT(CONCATENATE("flux_indicator!B$",C10+1))</f>
+        <f t="shared" ref="D10:D17" ca="1" si="2">INDIRECT(CONCATENATE("flux_indicator!B$",C10+1))</f>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E10" s="6">
         <v>-1</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>12</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G10+1))</f>
         <v>DeltaBiomass_BG</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7682,27 +9164,27 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C11" s="6">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E11" s="6">
         <v>-1</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>16</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G11+1))</f>
         <v>TurnoverCoarseLitterInput</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>-1</v>
       </c>
     </row>
@@ -7711,27 +9193,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C12" s="6">
         <v>34</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E12" s="6">
         <v>-1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <v>17</v>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="13" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G12+1))</f>
         <v>TurnoverFineLitterInput</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -7740,14 +9222,14 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C13" s="6">
         <v>35</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E13" s="6">
@@ -7759,51 +9241,51 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C14" s="6">
         <v>36</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E14" s="6">
         <v>-1</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C15" s="6">
         <v>8</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E15" s="6">
         <v>-1</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>80</v>
+      <c r="I15" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7811,27 +9293,27 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C16" s="6">
         <v>9</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E16" s="6">
         <v>-1</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>13</v>
       </c>
-      <c r="H16" s="13" t="str">
+      <c r="H16" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G16+1))</f>
         <v>TurnoverMerchLitterInput</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7840,27 +9322,27 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Ecosystem</v>
       </c>
       <c r="C17" s="6">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="E17" s="6">
         <v>-1</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>14</v>
       </c>
-      <c r="H17" s="13" t="str">
-        <f t="shared" ref="H17:H21" ca="1" si="2">INDIRECT(CONCATENATE("flux_indicator!B$",G17+1))</f>
+      <c r="H17" s="10" t="str">
+        <f t="shared" ref="H17:H21" ca="1" si="3">INDIRECT(CONCATENATE("flux_indicator!B$",G17+1))</f>
         <v>TurnoverFolLitterInput</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7869,27 +9351,27 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C18" s="5">
         <v>11</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C18+1))</f>
+        <f t="shared" ref="D18:D25" ca="1" si="4">INDIRECT(CONCATENATE("flux_indicator!B$",C18+1))</f>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>15</v>
       </c>
-      <c r="H18" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H18" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>TurnoverOthLitterInput</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7898,27 +9380,27 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C19+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E19" s="5">
         <v>-1</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <v>16</v>
       </c>
-      <c r="H19" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H19" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7927,27 +9409,27 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C20+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E20" s="5">
         <v>-1</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <v>17</v>
       </c>
-      <c r="H20" s="13" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H20" s="10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>TurnoverFineLitterInput</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7956,27 +9438,27 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C21+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E21" s="5">
         <v>-1</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <v>7</v>
       </c>
-      <c r="H21" s="16" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H21" s="13" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>DecayDOMCO2Emission</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -7985,14 +9467,14 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C22" s="2">
         <v>12</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C22+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E22" s="2">
@@ -8004,51 +9486,51 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C23" s="2">
         <v>16</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C23+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E23" s="2">
         <v>-1</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="G23" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C24" s="2">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C24+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E24" s="2">
         <v>-1</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>80</v>
+      <c r="I24" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -8056,27 +9538,27 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C25+1))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>DisturbanceBioCO2Emission</v>
       </c>
       <c r="E25" s="2">
         <v>-1</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="7">
         <v>37</v>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G25+1))</f>
         <v>DisturbanceMerchLitterInput</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8085,27 +9567,27 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C26" s="5">
         <v>5</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f t="shared" ref="D26:D29" ca="1" si="3">INDIRECT(CONCATENATE("flux_indicator!B$",C26+1))</f>
+        <f t="shared" ref="D26:D29" ca="1" si="5">INDIRECT(CONCATENATE("flux_indicator!B$",C26+1))</f>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="20">
         <v>38</v>
       </c>
-      <c r="H26" s="13" t="str">
+      <c r="H26" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G26+1))</f>
         <v>DisturbanceFolLitterInput</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="21">
         <v>1</v>
       </c>
     </row>
@@ -8114,27 +9596,27 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E27" s="2">
         <v>-1</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="7">
         <v>39</v>
       </c>
-      <c r="H27" s="13" t="str">
-        <f t="shared" ref="H27:H29" ca="1" si="4">INDIRECT(CONCATENATE("flux_indicator!B$",G27+1))</f>
+      <c r="H27" s="10" t="str">
+        <f t="shared" ref="H27:H29" ca="1" si="6">INDIRECT(CONCATENATE("flux_indicator!B$",G27+1))</f>
         <v>DisturbanceOthLitterInput</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8143,27 +9625,27 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C28" s="5">
         <v>8</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="20">
         <v>40</v>
       </c>
-      <c r="H28" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="H28" s="10" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DisturbanceCoarseLitterInput</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="21">
         <v>1</v>
       </c>
     </row>
@@ -8172,27 +9654,27 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C29" s="5">
         <v>9</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E29" s="2">
         <v>-1</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="15">
         <v>41</v>
       </c>
-      <c r="H29" s="16" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="H29" s="13" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>DisturbanceFineLitterInput</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8201,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" ref="B30:B35" ca="1" si="5">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A30+1))</f>
+        <f t="shared" ref="B30:B35" ca="1" si="7">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A30+1))</f>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C30" s="2">
@@ -8220,7 +9702,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C31" s="2">
@@ -8233,38 +9715,38 @@
       <c r="E31" s="2">
         <v>-1</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C32" s="2">
         <v>39</v>
       </c>
       <c r="D32" s="5" t="str">
-        <f t="shared" ref="D32:D34" ca="1" si="6">INDIRECT(CONCATENATE("flux_indicator!B$",C32+1))</f>
+        <f t="shared" ref="D32:D34" ca="1" si="8">INDIRECT(CONCATENATE("flux_indicator!B$",C32+1))</f>
         <v>DisturbanceOthLitterInput</v>
       </c>
       <c r="E32" s="2">
         <v>-1</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="22" t="s">
-        <v>80</v>
+      <c r="I32" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -8272,27 +9754,27 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DisturbanceCoarseLitterInput</v>
       </c>
       <c r="E33" s="2">
         <v>-1</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="7">
         <v>13</v>
       </c>
-      <c r="H33" s="13" t="str">
+      <c r="H33" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G33+1))</f>
         <v>TurnoverMerchLitterInput</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8301,27 +9783,27 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Delta Total Biomass</v>
       </c>
       <c r="C34" s="2">
         <v>41</v>
       </c>
       <c r="D34" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>DisturbanceFineLitterInput</v>
       </c>
       <c r="E34" s="2">
         <v>-1</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="20">
         <v>14</v>
       </c>
-      <c r="H34" s="13" t="str">
+      <c r="H34" s="10" t="str">
         <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",G34+1))</f>
         <v>TurnoverFolLitterInput</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="21">
         <v>1</v>
       </c>
     </row>
@@ -8330,27 +9812,27 @@
         <v>3</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C35" s="6">
         <v>11</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C35+1))</f>
+        <f t="shared" ref="D35:D48" ca="1" si="9">INDIRECT(CONCATENATE("flux_indicator!B$",C35+1))</f>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="7">
         <v>15</v>
       </c>
-      <c r="H35" s="13" t="str">
-        <f t="shared" ref="H35:H37" ca="1" si="7">INDIRECT(CONCATENATE("flux_indicator!B$",G35+1))</f>
+      <c r="H35" s="10" t="str">
+        <f t="shared" ref="H35:H37" ca="1" si="10">INDIRECT(CONCATENATE("flux_indicator!B$",G35+1))</f>
         <v>TurnoverOthLitterInput</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8359,27 +9841,27 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" ref="B36:B41" ca="1" si="8">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A36+1))</f>
+        <f t="shared" ref="B36:B41" ca="1" si="11">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A36+1))</f>
         <v>Delta Total DOM</v>
       </c>
       <c r="C36" s="6">
         <v>13</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C36+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E36" s="6">
         <v>-1</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="20">
         <v>16</v>
       </c>
-      <c r="H36" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="H36" s="10" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="21">
         <v>1</v>
       </c>
     </row>
@@ -8388,27 +9870,27 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C37" s="6">
         <v>14</v>
       </c>
       <c r="D37" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C37+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E37" s="6">
         <v>-1</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="15">
         <v>17</v>
       </c>
-      <c r="H37" s="16" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="H37" s="13" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>TurnoverFineLitterInput</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8417,14 +9899,14 @@
         <v>3</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C38" s="6">
         <v>15</v>
       </c>
       <c r="D38" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C38+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E38" s="6">
@@ -8436,14 +9918,14 @@
         <v>3</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C39" s="3">
         <v>12</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C39+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E39" s="3">
@@ -8455,14 +9937,14 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C40" s="3">
         <v>16</v>
       </c>
       <c r="D40" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C40+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E40" s="3">
@@ -8474,14 +9956,14 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C41" s="3">
         <v>17</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C41+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E41" s="3">
@@ -8493,14 +9975,14 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f t="shared" ref="B42:B52" ca="1" si="9">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A42+1))</f>
+        <f t="shared" ref="B42:B52" ca="1" si="12">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A42+1))</f>
         <v>Delta Total DOM</v>
       </c>
       <c r="C42" s="3">
         <v>7</v>
       </c>
       <c r="D42" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C42+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="E42" s="3">
@@ -8512,14 +9994,14 @@
         <v>3</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C43" s="3">
         <v>34</v>
       </c>
       <c r="D43" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C43+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E43" s="3">
@@ -8531,14 +10013,14 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C44" s="3">
         <v>35</v>
       </c>
       <c r="D44" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C44+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E44" s="3">
@@ -8550,14 +10032,14 @@
         <v>3</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C45" s="3">
         <v>36</v>
       </c>
       <c r="D45" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C45+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E45" s="3">
@@ -8569,14 +10051,14 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C46" s="3">
         <v>10</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C46+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="E46" s="3">
@@ -8588,14 +10070,14 @@
         <v>3</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C47" s="3">
         <v>37</v>
       </c>
       <c r="D47" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C47+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DisturbanceMerchLitterInput</v>
       </c>
       <c r="E47" s="3">
@@ -8607,14 +10089,14 @@
         <v>3</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C48" s="3">
         <v>38</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C48+1))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>DisturbanceFolLitterInput</v>
       </c>
       <c r="E48" s="3">
@@ -8626,14 +10108,14 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C49" s="3">
         <v>39</v>
       </c>
       <c r="D49" s="6" t="str">
-        <f t="shared" ref="D49:D51" ca="1" si="10">INDIRECT(CONCATENATE("flux_indicator!B$",C49+1))</f>
+        <f t="shared" ref="D49:D51" ca="1" si="13">INDIRECT(CONCATENATE("flux_indicator!B$",C49+1))</f>
         <v>DisturbanceOthLitterInput</v>
       </c>
       <c r="E49" s="3">
@@ -8645,14 +10127,14 @@
         <v>3</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C50" s="3">
         <v>40</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>DisturbanceCoarseLitterInput</v>
       </c>
       <c r="E50" s="3">
@@ -8664,14 +10146,14 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Delta Total DOM</v>
       </c>
       <c r="C51" s="3">
         <v>41</v>
       </c>
       <c r="D51" s="6" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>DisturbanceFineLitterInput</v>
       </c>
       <c r="E51" s="3">
@@ -8683,14 +10165,14 @@
         <v>4</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C52" s="5">
         <v>11</v>
       </c>
       <c r="D52" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C52+1))</f>
+        <f t="shared" ref="D52:D72" ca="1" si="14">INDIRECT(CONCATENATE("flux_indicator!B$",C52+1))</f>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E52" s="5">
@@ -8702,14 +10184,14 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" ref="B53:B62" ca="1" si="11">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A53+1))</f>
+        <f t="shared" ref="B53:B62" ca="1" si="15">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A53+1))</f>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C53" s="5">
         <v>13</v>
       </c>
       <c r="D53" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C53+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E53" s="5">
@@ -8721,14 +10203,14 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C54" s="5">
         <v>14</v>
       </c>
       <c r="D54" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C54+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E54" s="5">
@@ -8740,14 +10222,14 @@
         <v>4</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C55" s="5">
         <v>15</v>
       </c>
       <c r="D55" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C55+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E55" s="5">
@@ -8759,14 +10241,14 @@
         <v>4</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C56" s="2">
         <v>12</v>
       </c>
       <c r="D56" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C56+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E56" s="2">
@@ -8778,14 +10260,14 @@
         <v>4</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C57" s="2">
         <v>16</v>
       </c>
       <c r="D57" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C57+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E57" s="2">
@@ -8797,14 +10279,14 @@
         <v>4</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Primary Productivity (NPP)</v>
       </c>
       <c r="C58" s="2">
         <v>17</v>
       </c>
       <c r="D58" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C58+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E58" s="2">
@@ -8816,14 +10298,14 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C59" s="6">
         <v>11</v>
       </c>
       <c r="D59" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C59+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E59" s="6">
@@ -8835,14 +10317,14 @@
         <v>5</v>
       </c>
       <c r="B60" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C60" s="6">
         <v>13</v>
       </c>
       <c r="D60" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C60+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E60" s="6">
@@ -8854,14 +10336,14 @@
         <v>5</v>
       </c>
       <c r="B61" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C61" s="6">
         <v>14</v>
       </c>
       <c r="D61" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C61+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E61" s="6">
@@ -8873,14 +10355,14 @@
         <v>5</v>
       </c>
       <c r="B62" s="3" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C62" s="6">
         <v>15</v>
       </c>
       <c r="D62" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C62+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E62" s="6">
@@ -8892,14 +10374,14 @@
         <v>5</v>
       </c>
       <c r="B63" s="3" t="str">
-        <f t="shared" ref="B63:B65" ca="1" si="12">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A63+1))</f>
+        <f t="shared" ref="B63:B65" ca="1" si="16">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A63+1))</f>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C63" s="3">
         <v>12</v>
       </c>
       <c r="D63" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C63+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E63" s="3">
@@ -8911,14 +10393,14 @@
         <v>5</v>
       </c>
       <c r="B64" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C64" s="3">
         <v>16</v>
       </c>
       <c r="D64" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C64+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E64" s="3">
@@ -8930,14 +10412,14 @@
         <v>5</v>
       </c>
       <c r="B65" s="3" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C65" s="3">
         <v>17</v>
       </c>
       <c r="D65" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C65+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E65" s="3">
@@ -8949,14 +10431,14 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="str">
-        <f t="shared" ref="B66:B72" ca="1" si="13">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A66+1))</f>
+        <f t="shared" ref="B66:B72" ca="1" si="17">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A66+1))</f>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C66" s="3">
         <v>7</v>
       </c>
       <c r="D66" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C66+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="E66" s="3">
@@ -8968,14 +10450,14 @@
         <v>5</v>
       </c>
       <c r="B67" s="3" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C67" s="3">
         <v>34</v>
       </c>
       <c r="D67" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C67+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E67" s="3">
@@ -8987,14 +10469,14 @@
         <v>5</v>
       </c>
       <c r="B68" s="3" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C68" s="3">
         <v>35</v>
       </c>
       <c r="D68" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C68+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E68" s="3">
@@ -9006,14 +10488,14 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Net Ecosystem Productivity (NEP)</v>
       </c>
       <c r="C69" s="3">
         <v>36</v>
       </c>
       <c r="D69" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C69+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E69" s="3">
@@ -9025,14 +10507,14 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Net Growth</v>
       </c>
       <c r="C70" s="2">
         <v>11</v>
       </c>
       <c r="D70" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C70+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E70" s="2">
@@ -9044,14 +10526,14 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Net Growth</v>
       </c>
       <c r="C71" s="2">
         <v>12</v>
       </c>
       <c r="D71" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C71+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E71" s="2">
@@ -9063,14 +10545,14 @@
         <v>7</v>
       </c>
       <c r="B72" s="3" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>Net Litterfall</v>
       </c>
       <c r="C72" s="3">
         <v>13</v>
       </c>
       <c r="D72" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C72+1))</f>
+        <f t="shared" ca="1" si="14"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E72" s="3">
@@ -9082,14 +10564,14 @@
         <v>7</v>
       </c>
       <c r="B73" s="3" t="str">
-        <f t="shared" ref="B73:B74" ca="1" si="14">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A73+1))</f>
+        <f t="shared" ref="B73:B74" ca="1" si="18">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A73+1))</f>
         <v>Net Litterfall</v>
       </c>
       <c r="C73" s="3">
         <v>14</v>
       </c>
       <c r="D73" s="6" t="str">
-        <f t="shared" ref="D73:D121" ca="1" si="15">INDIRECT(CONCATENATE("flux_indicator!B$",C73+1))</f>
+        <f t="shared" ref="D73:D121" ca="1" si="19">INDIRECT(CONCATENATE("flux_indicator!B$",C73+1))</f>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E73" s="3">
@@ -9101,14 +10583,14 @@
         <v>7</v>
       </c>
       <c r="B74" s="3" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>Net Litterfall</v>
       </c>
       <c r="C74" s="3">
         <v>15</v>
       </c>
       <c r="D74" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E74" s="3">
@@ -9120,14 +10602,14 @@
         <v>7</v>
       </c>
       <c r="B75" s="3" t="str">
-        <f t="shared" ref="B75:B78" ca="1" si="16">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A75+1))</f>
+        <f t="shared" ref="B75:B78" ca="1" si="20">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A75+1))</f>
         <v>Net Litterfall</v>
       </c>
       <c r="C75" s="3">
         <v>16</v>
       </c>
       <c r="D75" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E75" s="3">
@@ -9139,14 +10621,14 @@
         <v>7</v>
       </c>
       <c r="B76" s="3" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>Net Litterfall</v>
       </c>
       <c r="C76" s="3">
         <v>17</v>
       </c>
       <c r="D76" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E76" s="3">
@@ -9158,14 +10640,14 @@
         <v>7</v>
       </c>
       <c r="B77" s="3" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>Net Litterfall</v>
       </c>
       <c r="C77" s="3">
         <v>7</v>
       </c>
       <c r="D77" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="E77" s="3">
@@ -9177,7 +10659,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>Total Litterfall</v>
       </c>
       <c r="C78" s="2">
@@ -9196,14 +10678,14 @@
         <v>8</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f t="shared" ref="B79:B83" ca="1" si="17">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A79+1))</f>
+        <f t="shared" ref="B79:B83" ca="1" si="21">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A79+1))</f>
         <v>Total Litterfall</v>
       </c>
       <c r="C79" s="2">
         <v>14</v>
       </c>
       <c r="D79" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E79" s="2">
@@ -9215,14 +10697,14 @@
         <v>8</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>Total Litterfall</v>
       </c>
       <c r="C80" s="2">
         <v>15</v>
       </c>
       <c r="D80" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E80" s="2">
@@ -9234,14 +10716,14 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>Total Litterfall</v>
       </c>
       <c r="C81" s="2">
         <v>16</v>
       </c>
       <c r="D81" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E81" s="2">
@@ -9253,14 +10735,14 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>Total Litterfall</v>
       </c>
       <c r="C82" s="2">
         <v>17</v>
       </c>
       <c r="D82" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E82" s="2">
@@ -9272,14 +10754,14 @@
         <v>9</v>
       </c>
       <c r="B83" s="3" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C83" s="3">
         <v>18</v>
       </c>
       <c r="D83" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayVFastAGToAir</v>
       </c>
       <c r="E83" s="3">
@@ -9291,14 +10773,14 @@
         <v>9</v>
       </c>
       <c r="B84" s="3" t="str">
-        <f t="shared" ref="B84:B85" ca="1" si="18">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A84+1))</f>
+        <f t="shared" ref="B84:B85" ca="1" si="22">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A84+1))</f>
         <v>Decomposition Releases</v>
       </c>
       <c r="C84" s="3">
         <v>19</v>
       </c>
       <c r="D84" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayVFastBGToAir</v>
       </c>
       <c r="E84" s="3">
@@ -9310,14 +10792,14 @@
         <v>9</v>
       </c>
       <c r="B85" s="3" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C85" s="3">
         <v>20</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayFastAGToAir</v>
       </c>
       <c r="E85" s="3">
@@ -9329,14 +10811,14 @@
         <v>9</v>
       </c>
       <c r="B86" s="3" t="str">
-        <f t="shared" ref="B86:B93" ca="1" si="19">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A86+1))</f>
+        <f t="shared" ref="B86:B93" ca="1" si="23">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A86+1))</f>
         <v>Decomposition Releases</v>
       </c>
       <c r="C86" s="3">
         <v>21</v>
       </c>
       <c r="D86" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayFastBGToAir</v>
       </c>
       <c r="E86" s="3">
@@ -9348,14 +10830,14 @@
         <v>9</v>
       </c>
       <c r="B87" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C87" s="3">
         <v>22</v>
       </c>
       <c r="D87" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayMediumToAir</v>
       </c>
       <c r="E87" s="3">
@@ -9367,14 +10849,14 @@
         <v>9</v>
       </c>
       <c r="B88" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C88" s="3">
         <v>23</v>
       </c>
       <c r="D88" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySlowAGToAir</v>
       </c>
       <c r="E88" s="3">
@@ -9386,14 +10868,14 @@
         <v>9</v>
       </c>
       <c r="B89" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C89" s="3">
         <v>24</v>
       </c>
       <c r="D89" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySlowBGToAir</v>
       </c>
       <c r="E89" s="3">
@@ -9405,14 +10887,14 @@
         <v>9</v>
       </c>
       <c r="B90" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C90" s="3">
         <v>25</v>
       </c>
       <c r="D90" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySWStemSnagToAir</v>
       </c>
       <c r="E90" s="3">
@@ -9424,14 +10906,14 @@
         <v>9</v>
       </c>
       <c r="B91" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C91" s="3">
         <v>26</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySWBranchSnagToAir</v>
       </c>
       <c r="E91" s="3">
@@ -9443,14 +10925,14 @@
         <v>9</v>
       </c>
       <c r="B92" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C92" s="3">
         <v>27</v>
       </c>
       <c r="D92" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayHWStemSnagToAir</v>
       </c>
       <c r="E92" s="3">
@@ -9462,14 +10944,14 @@
         <v>9</v>
       </c>
       <c r="B93" s="3" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Decomposition Releases</v>
       </c>
       <c r="C93" s="3">
         <v>28</v>
       </c>
       <c r="D93" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayHWBranchSnagToAir</v>
       </c>
       <c r="E93" s="3">
@@ -9481,14 +10963,14 @@
         <v>10</v>
       </c>
       <c r="B94" s="2" t="str">
-        <f t="shared" ref="B94" ca="1" si="20">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A94+1))</f>
+        <f t="shared" ref="B94" ca="1" si="24">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A94+1))</f>
         <v>Total Harvest (Biomass + Snags)</v>
       </c>
       <c r="C94" s="2">
         <v>8</v>
       </c>
       <c r="D94" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E94" s="2">
@@ -9500,14 +10982,14 @@
         <v>10</v>
       </c>
       <c r="B95" s="2" t="str">
-        <f t="shared" ref="B95:B97" ca="1" si="21">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A95+1))</f>
+        <f t="shared" ref="B95:B97" ca="1" si="25">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A95+1))</f>
         <v>Total Harvest (Biomass + Snags)</v>
       </c>
       <c r="C95" s="2">
         <v>9</v>
       </c>
       <c r="D95" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E95" s="2">
@@ -9519,14 +11001,14 @@
         <v>10</v>
       </c>
       <c r="B96" s="2" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>Total Harvest (Biomass + Snags)</v>
       </c>
       <c r="C96" s="2">
         <v>10</v>
       </c>
       <c r="D96" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="E96" s="2">
@@ -9538,14 +11020,14 @@
         <v>11</v>
       </c>
       <c r="B97" s="3" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>Total Harvest (Biomass)</v>
       </c>
       <c r="C97" s="3">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E97" s="3">
@@ -9557,14 +11039,14 @@
         <v>11</v>
       </c>
       <c r="B98" s="3" t="str">
-        <f t="shared" ref="B98" ca="1" si="22">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A98+1))</f>
+        <f t="shared" ref="B98" ca="1" si="26">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A98+1))</f>
         <v>Total Harvest (Biomass)</v>
       </c>
       <c r="C98" s="3">
         <v>9</v>
       </c>
       <c r="D98" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E98" s="3">
@@ -9576,14 +11058,14 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="str">
-        <f t="shared" ref="B99:B102" ca="1" si="23">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A99+1))</f>
+        <f t="shared" ref="B99:B102" ca="1" si="27">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A99+1))</f>
         <v>Total Harvest (Snags)</v>
       </c>
       <c r="C99" s="2">
         <v>10</v>
       </c>
       <c r="D99" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="E99" s="2">
@@ -9595,14 +11077,14 @@
         <v>13</v>
       </c>
       <c r="B100" s="3" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Softwood Harvest (Biomass)</v>
       </c>
       <c r="C100" s="3">
         <v>8</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E100" s="3">
@@ -9614,14 +11096,14 @@
         <v>14</v>
       </c>
       <c r="B101" s="2" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Hardwood Harvest (Biomass)</v>
       </c>
       <c r="C101" s="2">
         <v>9</v>
       </c>
       <c r="D101" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E101" s="2">
@@ -9633,14 +11115,14 @@
         <v>17</v>
       </c>
       <c r="B102" s="3" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Deadwood</v>
       </c>
       <c r="C102" s="3">
         <v>20</v>
       </c>
       <c r="D102" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayFastAGToAir</v>
       </c>
       <c r="E102" s="3">
@@ -9652,14 +11134,14 @@
         <v>17</v>
       </c>
       <c r="B103" s="3" t="str">
-        <f t="shared" ref="B103:B105" ca="1" si="24">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A103+1))</f>
+        <f t="shared" ref="B103:B105" ca="1" si="28">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A103+1))</f>
         <v>Deadwood</v>
       </c>
       <c r="C103" s="3">
         <v>21</v>
       </c>
       <c r="D103" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayFastBGToAir</v>
       </c>
       <c r="E103" s="3">
@@ -9671,14 +11153,14 @@
         <v>17</v>
       </c>
       <c r="B104" s="3" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Deadwood</v>
       </c>
       <c r="C104" s="3">
         <v>22</v>
       </c>
       <c r="D104" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayMediumToAir</v>
       </c>
       <c r="E104" s="3">
@@ -9690,14 +11172,14 @@
         <v>17</v>
       </c>
       <c r="B105" s="3" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Deadwood</v>
       </c>
       <c r="C105" s="3">
         <v>25</v>
       </c>
       <c r="D105" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySWStemSnagToAir</v>
       </c>
       <c r="E105" s="3">
@@ -9709,14 +11191,14 @@
         <v>17</v>
       </c>
       <c r="B106" s="3" t="str">
-        <f t="shared" ref="B106:B116" ca="1" si="25">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A106+1))</f>
+        <f t="shared" ref="B106:B116" ca="1" si="29">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A106+1))</f>
         <v>Deadwood</v>
       </c>
       <c r="C106" s="3">
         <v>26</v>
       </c>
       <c r="D106" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySWBranchSnagToAir</v>
       </c>
       <c r="E106" s="3">
@@ -9728,14 +11210,14 @@
         <v>17</v>
       </c>
       <c r="B107" s="3" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Deadwood</v>
       </c>
       <c r="C107" s="3">
         <v>27</v>
       </c>
       <c r="D107" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayHWStemSnagToAir</v>
       </c>
       <c r="E107" s="3">
@@ -9747,14 +11229,14 @@
         <v>17</v>
       </c>
       <c r="B108" s="3" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Deadwood</v>
       </c>
       <c r="C108" s="3">
         <v>28</v>
       </c>
       <c r="D108" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayHWBranchSnagToAir</v>
       </c>
       <c r="E108" s="3">
@@ -9766,14 +11248,14 @@
         <v>17</v>
       </c>
       <c r="B109" s="3" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Deadwood</v>
       </c>
       <c r="C109" s="3">
         <v>44</v>
       </c>
       <c r="D109" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceFastAGToAir</v>
       </c>
       <c r="E109" s="3">
@@ -9788,14 +11270,14 @@
         <v>17</v>
       </c>
       <c r="B110" s="3" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Deadwood</v>
       </c>
       <c r="C110" s="3">
         <v>45</v>
       </c>
       <c r="D110" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceFastBGToAir</v>
       </c>
       <c r="E110" s="3">
@@ -9807,14 +11289,14 @@
         <v>17</v>
       </c>
       <c r="B111" s="3" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Deadwood</v>
       </c>
       <c r="C111" s="3">
         <v>46</v>
       </c>
       <c r="D111" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceMediumToAir</v>
       </c>
       <c r="E111" s="3">
@@ -9826,14 +11308,14 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Deadwood</v>
       </c>
       <c r="C112" s="3">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceSWStemSnagToAir</v>
       </c>
       <c r="E112" s="3">
@@ -9845,14 +11327,14 @@
         <v>17</v>
       </c>
       <c r="B113" s="3" t="str">
-        <f t="shared" ref="B113:B115" ca="1" si="26">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A113+1))</f>
+        <f t="shared" ref="B113:B115" ca="1" si="30">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A113+1))</f>
         <v>Deadwood</v>
       </c>
       <c r="C113" s="3">
         <v>50</v>
       </c>
       <c r="D113" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceSWBranchSnagToAir</v>
       </c>
       <c r="E113" s="3">
@@ -9864,14 +11346,14 @@
         <v>17</v>
       </c>
       <c r="B114" s="3" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="30"/>
         <v>Deadwood</v>
       </c>
       <c r="C114" s="3">
         <v>51</v>
       </c>
       <c r="D114" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceHWStemSnagToAir</v>
       </c>
       <c r="E114" s="3">
@@ -9883,14 +11365,14 @@
         <v>17</v>
       </c>
       <c r="B115" s="3" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="30"/>
         <v>Deadwood</v>
       </c>
       <c r="C115" s="3">
         <v>52</v>
       </c>
       <c r="D115" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceHWBranchSnagToAir</v>
       </c>
       <c r="E115" s="3">
@@ -9902,14 +11384,14 @@
         <v>18</v>
       </c>
       <c r="B116" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Litter</v>
       </c>
       <c r="C116" s="2">
         <v>18</v>
       </c>
       <c r="D116" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayVFastAGToAir</v>
       </c>
       <c r="E116" s="2">
@@ -9921,14 +11403,14 @@
         <v>18</v>
       </c>
       <c r="B117" s="2" t="str">
-        <f t="shared" ref="B117:B118" ca="1" si="27">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A117+1))</f>
+        <f t="shared" ref="B117:B118" ca="1" si="31">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A117+1))</f>
         <v>Litter</v>
       </c>
       <c r="C117" s="2">
         <v>23</v>
       </c>
       <c r="D117" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySlowAGToAir</v>
       </c>
       <c r="E117" s="2">
@@ -9940,14 +11422,14 @@
         <v>18</v>
       </c>
       <c r="B118" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="31"/>
         <v>Litter</v>
       </c>
       <c r="C118" s="2">
         <v>42</v>
       </c>
       <c r="D118" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceVFastAGToAir</v>
       </c>
       <c r="E118" s="2">
@@ -9959,14 +11441,14 @@
         <v>18</v>
       </c>
       <c r="B119" s="2" t="str">
-        <f t="shared" ref="B119:B120" ca="1" si="28">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A119+1))</f>
+        <f t="shared" ref="B119:B120" ca="1" si="32">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A119+1))</f>
         <v>Litter</v>
       </c>
       <c r="C119" s="2">
         <v>47</v>
       </c>
       <c r="D119" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DisturbanceSlowAGToAir</v>
       </c>
       <c r="E119" s="2">
@@ -9978,14 +11460,14 @@
         <v>19</v>
       </c>
       <c r="B120" s="3" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>Soil C</v>
       </c>
       <c r="C120" s="3">
         <v>19</v>
       </c>
       <c r="D120" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecayVFastBGToAir</v>
       </c>
       <c r="E120" s="3">
@@ -9997,14 +11479,14 @@
         <v>19</v>
       </c>
       <c r="B121" s="3" t="str">
-        <f t="shared" ref="B121" ca="1" si="29">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A121+1))</f>
+        <f t="shared" ref="B121" ca="1" si="33">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A121+1))</f>
         <v>Soil C</v>
       </c>
       <c r="C121" s="3">
         <v>24</v>
       </c>
       <c r="D121" s="6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>DecaySlowBGToAir</v>
       </c>
       <c r="E121" s="3">
@@ -10016,14 +11498,14 @@
         <v>20</v>
       </c>
       <c r="B122" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A122+1))</f>
+        <f t="shared" ref="B122:B145" ca="1" si="34">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A122+1))</f>
         <v>Aboveground Very Fast DOM</v>
       </c>
       <c r="C122" s="2">
         <v>18</v>
       </c>
       <c r="D122" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C122+1))</f>
+        <f t="shared" ref="D122:D145" ca="1" si="35">INDIRECT(CONCATENATE("flux_indicator!B$",C122+1))</f>
         <v>DecayVFastAGToAir</v>
       </c>
       <c r="E122" s="2">
@@ -10035,14 +11517,14 @@
         <v>20</v>
       </c>
       <c r="B123" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A123+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Aboveground Very Fast DOM</v>
       </c>
       <c r="C123" s="2">
         <v>42</v>
       </c>
       <c r="D123" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C123+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceVFastAGToAir</v>
       </c>
       <c r="E123" s="2">
@@ -10054,14 +11536,14 @@
         <v>21</v>
       </c>
       <c r="B124" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A124+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Belowground Very Fast DOM</v>
       </c>
       <c r="C124" s="3">
         <v>19</v>
       </c>
       <c r="D124" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C124+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayVFastBGToAir</v>
       </c>
       <c r="E124" s="3">
@@ -10073,14 +11555,14 @@
         <v>21</v>
       </c>
       <c r="B125" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A125+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Belowground Very Fast DOM</v>
       </c>
       <c r="C125" s="3">
         <v>43</v>
       </c>
       <c r="D125" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C125+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceVFastBGToAir</v>
       </c>
       <c r="E125" s="3">
@@ -10092,14 +11574,14 @@
         <v>22</v>
       </c>
       <c r="B126" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A126+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Aboveground Fast DOM</v>
       </c>
       <c r="C126" s="2">
         <v>20</v>
       </c>
       <c r="D126" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C126+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayFastAGToAir</v>
       </c>
       <c r="E126" s="2">
@@ -10111,14 +11593,14 @@
         <v>22</v>
       </c>
       <c r="B127" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A127+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Aboveground Fast DOM</v>
       </c>
       <c r="C127" s="2">
         <v>44</v>
       </c>
       <c r="D127" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C127+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceFastAGToAir</v>
       </c>
       <c r="E127" s="2">
@@ -10130,14 +11612,14 @@
         <v>23</v>
       </c>
       <c r="B128" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A128+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Belowground Fast DOM</v>
       </c>
       <c r="C128" s="3">
         <v>21</v>
       </c>
       <c r="D128" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C128+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayFastBGToAir</v>
       </c>
       <c r="E128" s="3">
@@ -10149,14 +11631,14 @@
         <v>23</v>
       </c>
       <c r="B129" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A129+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Belowground Fast DOM</v>
       </c>
       <c r="C129" s="3">
         <v>45</v>
       </c>
       <c r="D129" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C129+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceFastBGToAir</v>
       </c>
       <c r="E129" s="3">
@@ -10168,14 +11650,14 @@
         <v>24</v>
       </c>
       <c r="B130" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A130+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Medium DOM</v>
       </c>
       <c r="C130" s="2">
         <v>22</v>
       </c>
       <c r="D130" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C130+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayMediumToAir</v>
       </c>
       <c r="E130" s="2">
@@ -10187,14 +11669,14 @@
         <v>24</v>
       </c>
       <c r="B131" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A131+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Medium DOM</v>
       </c>
       <c r="C131" s="2">
         <v>46</v>
       </c>
       <c r="D131" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C131+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceMediumToAir</v>
       </c>
       <c r="E131" s="2">
@@ -10206,14 +11688,14 @@
         <v>25</v>
       </c>
       <c r="B132" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A132+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Aboveground Slow DOM</v>
       </c>
       <c r="C132" s="3">
         <v>23</v>
       </c>
       <c r="D132" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C132+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecaySlowAGToAir</v>
       </c>
       <c r="E132" s="3">
@@ -10225,14 +11707,14 @@
         <v>25</v>
       </c>
       <c r="B133" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A133+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Aboveground Slow DOM</v>
       </c>
       <c r="C133" s="3">
         <v>47</v>
       </c>
       <c r="D133" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C133+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceSlowAGToAir</v>
       </c>
       <c r="E133" s="3">
@@ -10244,14 +11726,14 @@
         <v>26</v>
       </c>
       <c r="B134" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A134+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Belowground Slow DOM</v>
       </c>
       <c r="C134" s="2">
         <v>24</v>
       </c>
       <c r="D134" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C134+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecaySlowBGToAir</v>
       </c>
       <c r="E134" s="2">
@@ -10263,14 +11745,14 @@
         <v>26</v>
       </c>
       <c r="B135" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A135+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Belowground Slow DOM</v>
       </c>
       <c r="C135" s="2">
         <v>48</v>
       </c>
       <c r="D135" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C135+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceSlowBGToAir</v>
       </c>
       <c r="E135" s="2">
@@ -10282,14 +11764,14 @@
         <v>27</v>
       </c>
       <c r="B136" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A136+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Softwood Stem Snag</v>
       </c>
       <c r="C136" s="3">
         <v>25</v>
       </c>
       <c r="D136" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C136+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecaySWStemSnagToAir</v>
       </c>
       <c r="E136" s="3">
@@ -10301,14 +11783,14 @@
         <v>27</v>
       </c>
       <c r="B137" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A137+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Softwood Stem Snag</v>
       </c>
       <c r="C137" s="3">
         <v>49</v>
       </c>
       <c r="D137" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C137+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceSWStemSnagToAir</v>
       </c>
       <c r="E137" s="3">
@@ -10320,14 +11802,14 @@
         <v>28</v>
       </c>
       <c r="B138" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A138+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Softwood Branch Snag</v>
       </c>
       <c r="C138" s="2">
         <v>26</v>
       </c>
       <c r="D138" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C138+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecaySWBranchSnagToAir</v>
       </c>
       <c r="E138" s="2">
@@ -10339,14 +11821,14 @@
         <v>28</v>
       </c>
       <c r="B139" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A139+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Softwood Branch Snag</v>
       </c>
       <c r="C139" s="2">
         <v>50</v>
       </c>
       <c r="D139" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C139+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceSWBranchSnagToAir</v>
       </c>
       <c r="E139" s="2">
@@ -10358,14 +11840,14 @@
         <v>29</v>
       </c>
       <c r="B140" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A140+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Hardwood Stem Snag</v>
       </c>
       <c r="C140" s="3">
         <v>27</v>
       </c>
       <c r="D140" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C140+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayHWStemSnagToAir</v>
       </c>
       <c r="E140" s="3">
@@ -10377,14 +11859,14 @@
         <v>29</v>
       </c>
       <c r="B141" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A141+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Hardwood Stem Snag</v>
       </c>
       <c r="C141" s="3">
         <v>51</v>
       </c>
       <c r="D141" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C141+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceHWStemSnagToAir</v>
       </c>
       <c r="E141" s="3">
@@ -10396,14 +11878,14 @@
         <v>30</v>
       </c>
       <c r="B142" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A142+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Hardwood Branch Snag</v>
       </c>
       <c r="C142" s="2">
         <v>28</v>
       </c>
       <c r="D142" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C142+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayHWBranchSnagToAir</v>
       </c>
       <c r="E142" s="2">
@@ -10415,14 +11897,14 @@
         <v>30</v>
       </c>
       <c r="B143" s="2" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A143+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Hardwood Branch Snag</v>
       </c>
       <c r="C143" s="2">
         <v>52</v>
       </c>
       <c r="D143" s="5" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C143+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceHWBranchSnagToAir</v>
       </c>
       <c r="E143" s="2">
@@ -10434,14 +11916,14 @@
         <v>31</v>
       </c>
       <c r="B144" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A144+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Total</v>
       </c>
       <c r="C144" s="3">
         <v>7</v>
       </c>
       <c r="D144" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C144+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="E144" s="3">
@@ -10453,14 +11935,14 @@
         <v>31</v>
       </c>
       <c r="B145" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A145+1))</f>
+        <f t="shared" ca="1" si="34"/>
         <v>Total</v>
       </c>
       <c r="C145" s="3">
         <v>4</v>
       </c>
       <c r="D145" s="6" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C145+1))</f>
+        <f t="shared" ca="1" si="35"/>
         <v>DisturbanceBioCO2Emission</v>
       </c>
       <c r="E145" s="3">
@@ -10472,14 +11954,14 @@
         <v>31</v>
       </c>
       <c r="B146" s="3" t="str">
-        <f t="shared" ref="B146:B203" ca="1" si="30">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A146+1))</f>
+        <f t="shared" ref="B146:B203" ca="1" si="36">INDIRECT(CONCATENATE("composite_flux_indicator!B$",A146+1))</f>
         <v>Total</v>
       </c>
       <c r="C146" s="3">
         <v>5</v>
       </c>
       <c r="D146" s="6" t="str">
-        <f t="shared" ref="D146:D157" ca="1" si="31">INDIRECT(CONCATENATE("flux_indicator!B$",C146+1))</f>
+        <f t="shared" ref="D146:D157" ca="1" si="37">INDIRECT(CONCATENATE("flux_indicator!B$",C146+1))</f>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E146" s="3">
@@ -10491,14 +11973,14 @@
         <v>31</v>
       </c>
       <c r="B147" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total</v>
       </c>
       <c r="C147" s="3">
         <v>6</v>
       </c>
       <c r="D147" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E147" s="3">
@@ -10510,14 +11992,14 @@
         <v>31</v>
       </c>
       <c r="B148" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total</v>
       </c>
       <c r="C148" s="3">
         <v>34</v>
       </c>
       <c r="D148" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E148" s="3">
@@ -10529,14 +12011,14 @@
         <v>31</v>
       </c>
       <c r="B149" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total</v>
       </c>
       <c r="C149" s="3">
         <v>35</v>
       </c>
       <c r="D149" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E149" s="3">
@@ -10548,14 +12030,14 @@
         <v>31</v>
       </c>
       <c r="B150" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total</v>
       </c>
       <c r="C150" s="3">
         <v>36</v>
       </c>
       <c r="D150" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E150" s="3">
@@ -10567,7 +12049,7 @@
         <v>32</v>
       </c>
       <c r="B151" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total Biomass</v>
       </c>
       <c r="C151" s="2">
@@ -10586,14 +12068,14 @@
         <v>32</v>
       </c>
       <c r="B152" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total Biomass</v>
       </c>
       <c r="C152" s="2">
         <v>5</v>
       </c>
       <c r="D152" s="5" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E152" s="2">
@@ -10605,14 +12087,14 @@
         <v>32</v>
       </c>
       <c r="B153" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total Biomass</v>
       </c>
       <c r="C153" s="2">
         <v>6</v>
       </c>
       <c r="D153" s="5" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E153" s="2">
@@ -10624,7 +12106,7 @@
         <v>33</v>
       </c>
       <c r="B154" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total DOM</v>
       </c>
       <c r="C154" s="3">
@@ -10643,14 +12125,14 @@
         <v>33</v>
       </c>
       <c r="B155" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total DOM</v>
       </c>
       <c r="C155" s="3">
         <v>34</v>
       </c>
       <c r="D155" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E155" s="3">
@@ -10662,14 +12144,14 @@
         <v>33</v>
       </c>
       <c r="B156" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total DOM</v>
       </c>
       <c r="C156" s="3">
         <v>35</v>
       </c>
       <c r="D156" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E156" s="3">
@@ -10681,14 +12163,14 @@
         <v>33</v>
       </c>
       <c r="B157" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total DOM</v>
       </c>
       <c r="C157" s="3">
         <v>36</v>
       </c>
       <c r="D157" s="6" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E157" s="3">
@@ -10700,7 +12182,7 @@
         <v>34</v>
       </c>
       <c r="B158" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CO2</v>
       </c>
       <c r="C158" s="2">
@@ -10719,7 +12201,7 @@
         <v>34</v>
       </c>
       <c r="B159" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CO2</v>
       </c>
       <c r="C159" s="2">
@@ -10738,14 +12220,14 @@
         <v>34</v>
       </c>
       <c r="B160" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CO2</v>
       </c>
       <c r="C160" s="2">
         <v>34</v>
       </c>
       <c r="D160" s="5" t="str">
-        <f t="shared" ref="D160:D171" ca="1" si="32">INDIRECT(CONCATENATE("flux_indicator!B$",C160+1))</f>
+        <f t="shared" ref="D160:D171" ca="1" si="38">INDIRECT(CONCATENATE("flux_indicator!B$",C160+1))</f>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E160" s="2">
@@ -10757,14 +12239,14 @@
         <v>35</v>
       </c>
       <c r="B161" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CO</v>
       </c>
       <c r="C161" s="3">
         <v>6</v>
       </c>
       <c r="D161" s="6" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E161" s="3">
@@ -10776,14 +12258,14 @@
         <v>35</v>
       </c>
       <c r="B162" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CO</v>
       </c>
       <c r="C162" s="3">
         <v>36</v>
       </c>
       <c r="D162" s="6" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E162" s="3">
@@ -10795,14 +12277,14 @@
         <v>36</v>
       </c>
       <c r="B163" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CH4</v>
       </c>
       <c r="C163" s="2">
         <v>5</v>
       </c>
       <c r="D163" s="5" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E163" s="2">
@@ -10814,14 +12296,14 @@
         <v>36</v>
       </c>
       <c r="B164" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Total CH4</v>
       </c>
       <c r="C164" s="2">
         <v>35</v>
       </c>
       <c r="D164" s="5" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E164" s="2">
@@ -10833,7 +12315,7 @@
         <v>37</v>
       </c>
       <c r="B165" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio CO2</v>
       </c>
       <c r="C165" s="3">
@@ -10852,14 +12334,14 @@
         <v>38</v>
       </c>
       <c r="B166" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio CO</v>
       </c>
       <c r="C166" s="2">
         <v>6</v>
       </c>
       <c r="D166" s="5" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E166" s="2">
@@ -10871,14 +12353,14 @@
         <v>39</v>
       </c>
       <c r="B167" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio CH4</v>
       </c>
       <c r="C167" s="3">
         <v>5</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E167" s="3">
@@ -10890,14 +12372,14 @@
         <v>40</v>
       </c>
       <c r="B168" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>DOM CO2</v>
       </c>
       <c r="C168" s="2">
         <v>7</v>
       </c>
       <c r="D168" s="5" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="E168" s="2">
@@ -10909,14 +12391,14 @@
         <v>40</v>
       </c>
       <c r="B169" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>DOM CO2</v>
       </c>
       <c r="C169" s="2">
         <v>34</v>
       </c>
       <c r="D169" s="2" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E169" s="2">
@@ -10928,14 +12410,14 @@
         <v>41</v>
       </c>
       <c r="B170" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>DOM CO</v>
       </c>
       <c r="C170" s="3">
         <v>36</v>
       </c>
       <c r="D170" s="6" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E170" s="3">
@@ -10947,14 +12429,14 @@
         <v>42</v>
       </c>
       <c r="B171" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>DOM CH4</v>
       </c>
       <c r="C171" s="2">
         <v>35</v>
       </c>
       <c r="D171" s="2" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E171" s="2">
@@ -10966,7 +12448,7 @@
         <v>43</v>
       </c>
       <c r="B172" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C172" s="3">
@@ -10985,7 +12467,7 @@
         <v>43</v>
       </c>
       <c r="B173" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C173" s="3">
@@ -11004,14 +12486,14 @@
         <v>43</v>
       </c>
       <c r="B174" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C174" s="3">
         <v>5</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f t="shared" ref="D174:D181" ca="1" si="33">INDIRECT(CONCATENATE("flux_indicator!B$",C174+1))</f>
+        <f t="shared" ref="D174:D181" ca="1" si="39">INDIRECT(CONCATENATE("flux_indicator!B$",C174+1))</f>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E174" s="3">
@@ -11023,14 +12505,14 @@
         <v>43</v>
       </c>
       <c r="B175" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C175" s="3">
         <v>6</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E175" s="3">
@@ -11042,14 +12524,14 @@
         <v>43</v>
       </c>
       <c r="B176" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C176" s="3">
         <v>34</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E176" s="3">
@@ -11061,14 +12543,14 @@
         <v>43</v>
       </c>
       <c r="B177" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C177" s="3">
         <v>35</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E177" s="3">
@@ -11080,14 +12562,14 @@
         <v>43</v>
       </c>
       <c r="B178" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C178" s="3">
         <v>36</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E178" s="3">
@@ -11099,14 +12581,14 @@
         <v>43</v>
       </c>
       <c r="B179" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C179" s="3">
         <v>8</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E179" s="3">
@@ -11118,14 +12600,14 @@
         <v>43</v>
       </c>
       <c r="B180" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C180" s="3">
         <v>9</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E180" s="3">
@@ -11137,14 +12619,14 @@
         <v>43</v>
       </c>
       <c r="B181" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Disturbance Losses</v>
       </c>
       <c r="C181" s="3">
         <v>10</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="39"/>
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="E181" s="3">
@@ -11156,7 +12638,7 @@
         <v>44</v>
       </c>
       <c r="B182" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio To Soil from Disturbances</v>
       </c>
       <c r="C182" s="2">
@@ -11175,7 +12657,7 @@
         <v>44</v>
       </c>
       <c r="B183" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio To Soil from Disturbances</v>
       </c>
       <c r="C183" s="2">
@@ -11194,14 +12676,14 @@
         <v>44</v>
       </c>
       <c r="B184" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio To Soil from Disturbances</v>
       </c>
       <c r="C184" s="2">
         <v>39</v>
       </c>
       <c r="D184" s="5" t="str">
-        <f t="shared" ref="D184:D186" ca="1" si="34">INDIRECT(CONCATENATE("flux_indicator!B$",C184+1))</f>
+        <f t="shared" ref="D184:D186" ca="1" si="40">INDIRECT(CONCATENATE("flux_indicator!B$",C184+1))</f>
         <v>DisturbanceOthLitterInput</v>
       </c>
       <c r="E184" s="2">
@@ -11213,14 +12695,14 @@
         <v>44</v>
       </c>
       <c r="B185" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio To Soil from Disturbances</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
       </c>
       <c r="D185" s="5" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="40"/>
         <v>DisturbanceCoarseLitterInput</v>
       </c>
       <c r="E185" s="2">
@@ -11232,14 +12714,14 @@
         <v>44</v>
       </c>
       <c r="B186" s="2" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Bio To Soil from Disturbances</v>
       </c>
       <c r="C186" s="2">
         <v>41</v>
       </c>
       <c r="D186" s="5" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="40"/>
         <v>DisturbanceFineLitterInput</v>
       </c>
       <c r="E186" s="2">
@@ -11251,14 +12733,14 @@
         <v>45</v>
       </c>
       <c r="B187" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C187" s="3">
         <v>11</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C187+1))</f>
+        <f t="shared" ref="D187:D195" ca="1" si="41">INDIRECT(CONCATENATE("flux_indicator!B$",C187+1))</f>
         <v>DeltaBiomass_AG</v>
       </c>
       <c r="E187" s="3">
@@ -11270,14 +12752,14 @@
         <v>45</v>
       </c>
       <c r="B188" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C188" s="3">
         <v>13</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C188+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>TurnoverMerchLitterInput</v>
       </c>
       <c r="E188" s="3">
@@ -11289,14 +12771,14 @@
         <v>45</v>
       </c>
       <c r="B189" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C189" s="3">
         <v>14</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C189+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>TurnoverFolLitterInput</v>
       </c>
       <c r="E189" s="3">
@@ -11308,14 +12790,14 @@
         <v>45</v>
       </c>
       <c r="B190" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C190" s="3">
         <v>15</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C190+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>TurnoverOthLitterInput</v>
       </c>
       <c r="E190" s="3">
@@ -11327,14 +12809,14 @@
         <v>45</v>
       </c>
       <c r="B191" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C191" s="3">
         <v>12</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C191+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>DeltaBiomass_BG</v>
       </c>
       <c r="E191" s="3">
@@ -11346,14 +12828,14 @@
         <v>45</v>
       </c>
       <c r="B192" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C192" s="3">
         <v>16</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C192+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>TurnoverCoarseLitterInput</v>
       </c>
       <c r="E192" s="3">
@@ -11365,14 +12847,14 @@
         <v>45</v>
       </c>
       <c r="B193" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C193" s="3">
         <v>17</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C193+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>TurnoverFineLitterInput</v>
       </c>
       <c r="E193" s="3">
@@ -11384,14 +12866,14 @@
         <v>45</v>
       </c>
       <c r="B194" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C194" s="3">
         <v>7</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C194+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>DecayDOMCO2Emission</v>
       </c>
       <c r="E194" s="3">
@@ -11403,14 +12885,14 @@
         <v>45</v>
       </c>
       <c r="B195" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C195" s="3">
         <v>4</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f ca="1">INDIRECT(CONCATENATE("flux_indicator!B$",C195+1))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>DisturbanceBioCO2Emission</v>
       </c>
       <c r="E195" s="3">
@@ -11422,14 +12904,14 @@
         <v>45</v>
       </c>
       <c r="B196" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C196" s="3">
         <v>5</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f t="shared" ref="D196:D203" ca="1" si="35">INDIRECT(CONCATENATE("flux_indicator!B$",C196+1))</f>
+        <f t="shared" ref="D196:D203" ca="1" si="42">INDIRECT(CONCATENATE("flux_indicator!B$",C196+1))</f>
         <v>DisturbanceBioCH4Emission</v>
       </c>
       <c r="E196" s="3">
@@ -11441,14 +12923,14 @@
         <v>45</v>
       </c>
       <c r="B197" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C197" s="3">
         <v>6</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceBioCOEmission</v>
       </c>
       <c r="E197" s="3">
@@ -11460,14 +12942,14 @@
         <v>45</v>
       </c>
       <c r="B198" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C198" s="3">
         <v>34</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceDOMCO2Emission</v>
       </c>
       <c r="E198" s="3">
@@ -11479,14 +12961,14 @@
         <v>45</v>
       </c>
       <c r="B199" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C199" s="3">
         <v>35</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceDOMCH4Emssion</v>
       </c>
       <c r="E199" s="3">
@@ -11498,14 +12980,14 @@
         <v>45</v>
       </c>
       <c r="B200" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C200" s="3">
         <v>36</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceDOMCOEmission</v>
       </c>
       <c r="E200" s="3">
@@ -11517,14 +12999,14 @@
         <v>45</v>
       </c>
       <c r="B201" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C201" s="3">
         <v>8</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceSoftProduction</v>
       </c>
       <c r="E201" s="3">
@@ -11536,14 +13018,14 @@
         <v>45</v>
       </c>
       <c r="B202" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C202" s="3">
         <v>9</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceHardProduction</v>
       </c>
       <c r="E202" s="3">
@@ -11555,14 +13037,14 @@
         <v>45</v>
       </c>
       <c r="B203" s="3" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>Net Biome Productivity (NBP)</v>
       </c>
       <c r="C203" s="3">
         <v>10</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="42"/>
         <v>DisturbanceDOMProduction</v>
       </c>
       <c r="E203" s="3">

--- a/flux_indicators.xlsx
+++ b/flux_indicators.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11700" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11700" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="pool" sheetId="8" r:id="rId1"/>
-    <sheet name="pool_translation" sheetId="11" r:id="rId2"/>
+    <sheet name="pool_tr" sheetId="11" r:id="rId2"/>
     <sheet name="simulation_process" sheetId="7" r:id="rId3"/>
     <sheet name="flux_indicator" sheetId="1" r:id="rId4"/>
     <sheet name="flux_indicator_source" sheetId="3" r:id="rId5"/>
     <sheet name="flux_indicator_sink" sheetId="4" r:id="rId6"/>
     <sheet name="composite_flux_indicator" sheetId="5" r:id="rId7"/>
-    <sheet name="composite_flux_indicator_value" sheetId="6" r:id="rId8"/>
+    <sheet name="flux_indicator_category_tr" sheetId="13" r:id="rId8"/>
+    <sheet name="composite_flux_indicator_value" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="310">
   <si>
     <t>DeltaBiomass_AG</t>
   </si>
@@ -477,12 +478,6 @@
     <t>language</t>
   </si>
   <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Softwood Merchantable</t>
   </si>
   <si>
@@ -709,6 +704,264 @@
   </si>
   <si>
     <t>Продукты</t>
+  </si>
+  <si>
+    <t>Biomass Totals</t>
+  </si>
+  <si>
+    <t>DOM Totals</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Ecosystem Indicators</t>
+  </si>
+  <si>
+    <t>Ecosystem to Forest Products</t>
+  </si>
+  <si>
+    <t>Release to Atmostphere</t>
+  </si>
+  <si>
+    <t>Emissions By Source</t>
+  </si>
+  <si>
+    <t>Emissions By Gas</t>
+  </si>
+  <si>
+    <t>Biomass Emissions By Gas</t>
+  </si>
+  <si>
+    <t>DOM Emissions By Gas</t>
+  </si>
+  <si>
+    <t>Disturbance Transfers</t>
+  </si>
+  <si>
+    <t>Stock Changes</t>
+  </si>
+  <si>
+    <t>Ecosystem Transfers</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>SubCategoryName</t>
+  </si>
+  <si>
+    <t>flux_indicator_category_id</t>
+  </si>
+  <si>
+    <t>pl-PL</t>
+  </si>
+  <si>
+    <t>Delta écosystème total</t>
+  </si>
+  <si>
+    <t>Дельта всей экосистемы</t>
+  </si>
+  <si>
+    <t>Całkowita zmiana ekosystemu</t>
+  </si>
+  <si>
+    <t>Cambio total en ecosistema</t>
+  </si>
+  <si>
+    <t>Delta biomasse totale</t>
+  </si>
+  <si>
+    <t>Cambio total en biomasa</t>
+  </si>
+  <si>
+    <t>Zmiana całkowitej biomasy</t>
+  </si>
+  <si>
+    <t>Дельта общей биомассы</t>
+  </si>
+  <si>
+    <t>Cambio total en MOM</t>
+  </si>
+  <si>
+    <t>Delta MOM totale</t>
+  </si>
+  <si>
+    <t>Zmiana całkowitej, rozpuszczonej martwej materii organicznej (DOM)</t>
+  </si>
+  <si>
+    <t>Дельта общего МОВ</t>
+  </si>
+  <si>
+    <t>Productivité du biome nette (PBN)</t>
+  </si>
+  <si>
+    <t>Produkcja biomu netto (NBP)</t>
+  </si>
+  <si>
+    <t>Productividad de bioma neta (PBN)</t>
+  </si>
+  <si>
+    <t>Чистая продуктивность биома (ЧПБ)</t>
+  </si>
+  <si>
+    <t>Produkcyjność ekosystemu netto (NEP)</t>
+  </si>
+  <si>
+    <t>Productivité écosystémique nette (PEN)</t>
+  </si>
+  <si>
+    <t>Чистая продуктивность экосистемы (ЧПЭ)</t>
+  </si>
+  <si>
+    <t>Productividad neta del ecosistema (PNE)</t>
+  </si>
+  <si>
+    <t>Produkcja podstawowa netto (NPP)</t>
+  </si>
+  <si>
+    <t>Чистая первичная продуктивность (ЧПП)</t>
+  </si>
+  <si>
+    <t>Productivité primaire nette (PPN)</t>
+  </si>
+  <si>
+    <t>Productividad primaria neta (PPN)</t>
+  </si>
+  <si>
+    <t>Croissance nette</t>
+  </si>
+  <si>
+    <t>Чистый рост</t>
+  </si>
+  <si>
+    <t>Crecimiento neto</t>
+  </si>
+  <si>
+    <t>Wzrost netto</t>
+  </si>
+  <si>
+    <t>Opad listowia netto</t>
+  </si>
+  <si>
+    <t>Hojarasca neta</t>
+  </si>
+  <si>
+    <t>Chute de litière nette</t>
+  </si>
+  <si>
+    <t>Чистый опад</t>
+  </si>
+  <si>
+    <t>Chute de litière totale</t>
+  </si>
+  <si>
+    <t>Всего опада</t>
+  </si>
+  <si>
+    <t>Hojarasca total</t>
+  </si>
+  <si>
+    <t>Całkowity opad listowia</t>
+  </si>
+  <si>
+    <t>Emisje rozkładu</t>
+  </si>
+  <si>
+    <t>Emisiones de descomposición</t>
+  </si>
+  <si>
+    <t>Выбросы от разложения</t>
+  </si>
+  <si>
+    <t>Rejets de décomposition</t>
+  </si>
+  <si>
+    <t>Całkowite pozyskanie (biomasa + posusz)</t>
+  </si>
+  <si>
+    <t>Explotación total (biomasa + árboles muertos)</t>
+  </si>
+  <si>
+    <t>Общий урожай (биомасса + валеж)</t>
+  </si>
+  <si>
+    <t>Récolte totale (biomasse + chicots)</t>
+  </si>
+  <si>
+    <t>Récolte totale (biomasse)</t>
+  </si>
+  <si>
+    <t>Общий урожай (биомасса)</t>
+  </si>
+  <si>
+    <t>Explotación total (biomasa)</t>
+  </si>
+  <si>
+    <t>Całkowite pozyskanie (biomasa)</t>
+  </si>
+  <si>
+    <t>Récolte totale (chicots)</t>
+  </si>
+  <si>
+    <t>Общий урожай (валеж)</t>
+  </si>
+  <si>
+    <t>Explotación total (árboles muertos)</t>
+  </si>
+  <si>
+    <t>Całkowite pozyskanie (posusz)</t>
+  </si>
+  <si>
+    <t>Récolte de résineux (biomasse)</t>
+  </si>
+  <si>
+    <t>Урожай хвойных (биомасса)</t>
+  </si>
+  <si>
+    <t>Explotación de coníferas (biomasa)</t>
+  </si>
+  <si>
+    <t>Pozyskanie iglastych (biomasa)</t>
+  </si>
+  <si>
+    <t>Récolte de feuillus (biomasse)</t>
+  </si>
+  <si>
+    <t>Урожай лиственных (биомасса)</t>
+  </si>
+  <si>
+    <t>Explotación de caducifolios (biomasa)</t>
+  </si>
+  <si>
+    <t>Pozyskanie liściastych (biomasa)</t>
+  </si>
+  <si>
+    <t>Récolte de résineux (chicots)</t>
+  </si>
+  <si>
+    <t>Урожай хвойных (валеж)</t>
+  </si>
+  <si>
+    <t>Explotación de coníferas (árboles muertos)</t>
+  </si>
+  <si>
+    <t>Pozyskanie iglastych (posusz)</t>
+  </si>
+  <si>
+    <t>Récolte de feuillus (chicots)</t>
+  </si>
+  <si>
+    <t>Урожай лиственных (валеж)</t>
+  </si>
+  <si>
+    <t>Explotación de caducifolios (árboles muertos)</t>
+  </si>
+  <si>
+    <t>Pozyskanie liściastych (posusz)</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1458,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,35 +1697,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G96" sqref="G95:G96"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1483,13 +1734,10 @@
         <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1499,14 +1747,11 @@
       <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1516,14 +1761,11 @@
       <c r="C4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1533,14 +1775,11 @@
       <c r="C5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1550,14 +1789,11 @@
       <c r="C6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1567,14 +1803,11 @@
       <c r="C7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1584,14 +1817,11 @@
       <c r="C8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1601,14 +1831,11 @@
       <c r="C9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1618,14 +1845,11 @@
       <c r="C10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1635,14 +1859,11 @@
       <c r="C11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1652,14 +1873,11 @@
       <c r="C12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1669,14 +1887,11 @@
       <c r="C13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1686,14 +1901,11 @@
       <c r="C14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1703,14 +1915,11 @@
       <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1720,14 +1929,11 @@
       <c r="C16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1737,14 +1943,11 @@
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1754,14 +1957,11 @@
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1771,14 +1971,11 @@
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1788,14 +1985,11 @@
       <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1805,14 +1999,11 @@
       <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1822,14 +2013,11 @@
       <c r="C22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1839,14 +2027,11 @@
       <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1856,14 +2041,11 @@
       <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1873,14 +2055,11 @@
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1890,14 +2069,11 @@
       <c r="C26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1907,14 +2083,11 @@
       <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1925,13 +2098,10 @@
         <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1941,14 +2111,11 @@
       <c r="C29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1958,14 +2125,11 @@
       <c r="C30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1975,14 +2139,11 @@
       <c r="C31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1992,14 +2153,11 @@
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2009,14 +2167,11 @@
       <c r="C33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2026,14 +2181,11 @@
       <c r="C34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2043,14 +2195,11 @@
       <c r="C35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2060,14 +2209,11 @@
       <c r="C36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2077,14 +2223,11 @@
       <c r="C37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2094,14 +2237,11 @@
       <c r="C38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2111,14 +2251,11 @@
       <c r="C39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2128,14 +2265,11 @@
       <c r="C40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2145,14 +2279,11 @@
       <c r="C41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2162,14 +2293,11 @@
       <c r="C42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2179,14 +2307,11 @@
       <c r="C43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2196,14 +2321,11 @@
       <c r="C44" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2213,14 +2335,11 @@
       <c r="C45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2230,14 +2349,11 @@
       <c r="C46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2247,14 +2363,11 @@
       <c r="C47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2264,14 +2377,11 @@
       <c r="C48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2281,14 +2391,11 @@
       <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2298,14 +2405,11 @@
       <c r="C50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2315,14 +2419,11 @@
       <c r="C51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2332,14 +2433,11 @@
       <c r="C52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2349,14 +2447,11 @@
       <c r="C53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2366,14 +2461,11 @@
       <c r="C54" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2383,14 +2475,11 @@
       <c r="C55" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2400,14 +2489,11 @@
       <c r="C56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2417,14 +2503,11 @@
       <c r="C57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2434,14 +2517,11 @@
       <c r="C58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2451,14 +2531,11 @@
       <c r="C59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2468,14 +2545,11 @@
       <c r="C60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2485,14 +2559,11 @@
       <c r="C61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2502,14 +2573,11 @@
       <c r="C62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2519,14 +2587,11 @@
       <c r="C63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2536,14 +2601,11 @@
       <c r="C64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2553,14 +2615,11 @@
       <c r="C65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2570,14 +2629,11 @@
       <c r="C66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2587,14 +2643,11 @@
       <c r="C67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2604,14 +2657,11 @@
       <c r="C68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2621,14 +2671,11 @@
       <c r="C69" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2638,14 +2685,11 @@
       <c r="C70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2655,14 +2699,11 @@
       <c r="C71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2672,14 +2713,11 @@
       <c r="C72" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2689,14 +2727,11 @@
       <c r="C73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2706,14 +2741,11 @@
       <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2723,14 +2755,11 @@
       <c r="C75" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2740,14 +2769,11 @@
       <c r="C76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2757,14 +2783,11 @@
       <c r="C77" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2774,14 +2797,11 @@
       <c r="C78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2791,14 +2811,11 @@
       <c r="C79" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2809,13 +2826,10 @@
         <v>146</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2825,14 +2839,11 @@
       <c r="C81" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2842,14 +2853,11 @@
       <c r="C82" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2859,14 +2867,11 @@
       <c r="C83" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2876,14 +2881,11 @@
       <c r="C84" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2893,14 +2895,11 @@
       <c r="C85" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2910,14 +2909,11 @@
       <c r="C86" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2927,14 +2923,11 @@
       <c r="C87" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2944,14 +2937,11 @@
       <c r="C88" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E88" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2961,14 +2951,11 @@
       <c r="C89" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2978,14 +2965,11 @@
       <c r="C90" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2995,14 +2979,11 @@
       <c r="C91" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E91" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3012,14 +2993,11 @@
       <c r="C92" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3029,14 +3007,11 @@
       <c r="C93" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3046,14 +3021,11 @@
       <c r="C94" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3063,14 +3035,11 @@
       <c r="C95" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3080,14 +3049,11 @@
       <c r="C96" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3097,14 +3063,11 @@
       <c r="C97" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3114,14 +3077,11 @@
       <c r="C98" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3131,14 +3091,11 @@
       <c r="C99" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3148,14 +3105,11 @@
       <c r="C100" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3165,14 +3119,11 @@
       <c r="C101" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D101" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3182,14 +3133,11 @@
       <c r="C102" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D102" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3199,14 +3147,11 @@
       <c r="C103" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3216,14 +3161,11 @@
       <c r="C104" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3233,11 +3175,8 @@
       <c r="C105" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" t="s">
-        <v>225</v>
+      <c r="D105" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -4114,7 +4053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
@@ -7403,7 +7342,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D71"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8485,155 +8424,363 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -8641,7 +8788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -8649,7 +8796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -8657,7 +8804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8665,7 +8812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -8673,7 +8820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8681,7 +8828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -8689,7 +8836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -8697,7 +8844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8705,7 +8852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8713,7 +8860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8721,7 +8868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -8729,7 +8876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -8737,7 +8884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8745,7 +8892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -8753,7 +8900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -8761,7 +8908,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -8769,7 +8916,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -8777,7 +8924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -8785,7 +8932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -8793,7 +8940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -8801,7 +8948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -8809,7 +8956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -8817,7 +8964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -8825,7 +8972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -8833,7 +8980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -8841,7 +8988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -8849,7 +8996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -8857,12 +9004,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8872,10 +9031,148 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/flux_indicators.xlsx
+++ b/flux_indicators.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="384">
   <si>
     <t>DeltaBiomass_AG</t>
   </si>
@@ -962,13 +962,235 @@
   </si>
   <si>
     <t>Pozyskanie liściastych (posusz)</t>
+  </si>
+  <si>
+    <t>Bois mort</t>
+  </si>
+  <si>
+    <t>Сухостой</t>
+  </si>
+  <si>
+    <t>Madera muerta</t>
+  </si>
+  <si>
+    <t>Martwe drewno</t>
+  </si>
+  <si>
+    <t>Litière</t>
+  </si>
+  <si>
+    <t>Ściółka</t>
+  </si>
+  <si>
+    <t>Опад</t>
+  </si>
+  <si>
+    <t>Hojarasca</t>
+  </si>
+  <si>
+    <t>C du sol</t>
+  </si>
+  <si>
+    <t>Węgiel w glebie</t>
+  </si>
+  <si>
+    <t>Почвенный C</t>
+  </si>
+  <si>
+    <t>C de suelo</t>
+  </si>
+  <si>
+    <t>Nadziemna, bardzo szybko rozpuszczona martwa materia organiczna</t>
+  </si>
+  <si>
+    <t>Podziemna, bardzo szybko rozpuszczona martwa materia organiczna</t>
+  </si>
+  <si>
+    <t>Надземное быстро разлагающееся МОВ</t>
+  </si>
+  <si>
+    <t>Nadziemna, szybko rozpuszczona martwa materia organiczna (DOM)</t>
+  </si>
+  <si>
+    <t>Podziemna, szybko rozpuszczona martwa materia organiczna (DOM)</t>
+  </si>
+  <si>
+    <t>MOM lenta subterránea</t>
+  </si>
+  <si>
+    <t>Podziemna, wolno rozpuszczona martwa materia organiczna (DOM)</t>
+  </si>
+  <si>
+    <t>MOM lenta superficial</t>
+  </si>
+  <si>
+    <t>Nadziemna, wolno rozpuszczona martwa materia organiczna (DOM)</t>
+  </si>
+  <si>
+    <t>Średnio rozpuszczona martwa materia organiczna</t>
+  </si>
+  <si>
+    <t>Валеж хвойных пород</t>
+  </si>
+  <si>
+    <t>Iglaste posusz pnie</t>
+  </si>
+  <si>
+    <t>Ramas  muertas de coníferas</t>
+  </si>
+  <si>
+    <t>Iglaste posusz gałęzie</t>
+  </si>
+  <si>
+    <t>Валеж лиственных пород:</t>
+  </si>
+  <si>
+    <t>Liściaste posusz pnie</t>
+  </si>
+  <si>
+    <t>Валеж ветвей лиственных</t>
+  </si>
+  <si>
+    <t>Ramas  muertas de caducifolios</t>
+  </si>
+  <si>
+    <t>Liściaste posusz gałęzie</t>
+  </si>
+  <si>
+    <t>Totales</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Całkowity</t>
+  </si>
+  <si>
+    <t>Biomasse totale</t>
+  </si>
+  <si>
+    <t>Всего биомассы</t>
+  </si>
+  <si>
+    <t>Biomasa total</t>
+  </si>
+  <si>
+    <t>Całkowita biomasa</t>
+  </si>
+  <si>
+    <t>MOM totale</t>
+  </si>
+  <si>
+    <t>Всего МОВ</t>
+  </si>
+  <si>
+    <t>MOM total</t>
+  </si>
+  <si>
+    <t>Całkowita rozpuszczona martwa materia organiczna (DOM)</t>
+  </si>
+  <si>
+    <t>CO2 total</t>
+  </si>
+  <si>
+    <t>Всего CO2</t>
+  </si>
+  <si>
+    <t>Całkowity CO2</t>
+  </si>
+  <si>
+    <t>CH4 total</t>
+  </si>
+  <si>
+    <t>Всего CH4</t>
+  </si>
+  <si>
+    <t>Całkowity CH4</t>
+  </si>
+  <si>
+    <t>CO total</t>
+  </si>
+  <si>
+    <t>Всего CO</t>
+  </si>
+  <si>
+    <t>Całkowity CO</t>
+  </si>
+  <si>
+    <t>CO2 bio</t>
+  </si>
+  <si>
+    <t>Био CO2</t>
+  </si>
+  <si>
+    <t>CO bio</t>
+  </si>
+  <si>
+    <t>Био CO</t>
+  </si>
+  <si>
+    <t>CH4 bio</t>
+  </si>
+  <si>
+    <t>Био CH4</t>
+  </si>
+  <si>
+    <t>CO2 MOM</t>
+  </si>
+  <si>
+    <t>МОВ CO2</t>
+  </si>
+  <si>
+    <t>CO2 rozpuszczonej martwej materii organicznej (DOM)</t>
+  </si>
+  <si>
+    <t>CO MOM</t>
+  </si>
+  <si>
+    <t>МОВ CO</t>
+  </si>
+  <si>
+    <t>CO rozpuszczonej martwej materii organicznej (DOM)</t>
+  </si>
+  <si>
+    <t>CH4 MOM</t>
+  </si>
+  <si>
+    <t>МОВ CH4</t>
+  </si>
+  <si>
+    <t>CH4 rozpuszczonej martwej materii organicznej (DOM)</t>
+  </si>
+  <si>
+    <t>Pertes dues aux perturbations</t>
+  </si>
+  <si>
+    <t>Ущербы нарушения</t>
+  </si>
+  <si>
+    <t>Pérdidas por perturbación</t>
+  </si>
+  <si>
+    <t>Straty związane z zakłóceniem</t>
+  </si>
+  <si>
+    <t>Bio à sol dû aux perturbations</t>
+  </si>
+  <si>
+    <t>Био в почву через нарушения</t>
+  </si>
+  <si>
+    <t>Bio a suelo de perturbaciones</t>
+  </si>
+  <si>
+    <t>Zaburzenia przez biomasę do gleby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,6 +1212,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1005,7 +1237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1130,11 +1362,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1175,9 +1424,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_composite_flux_indicator" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8427,7 +8688,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,9 +8696,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8451,13 +8712,13 @@
         <v>144</v>
       </c>
       <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>241</v>
-      </c>
-      <c r="F1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8471,13 +8732,13 @@
         <v>242</v>
       </c>
       <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
         <v>245</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>244</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8491,13 +8752,13 @@
         <v>246</v>
       </c>
       <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
         <v>247</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>248</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8511,13 +8772,13 @@
         <v>251</v>
       </c>
       <c r="D4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" t="s">
         <v>250</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>252</v>
-      </c>
-      <c r="F4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8531,13 +8792,13 @@
         <v>264</v>
       </c>
       <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>262</v>
-      </c>
-      <c r="F5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8551,13 +8812,13 @@
         <v>259</v>
       </c>
       <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
         <v>261</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>258</v>
-      </c>
-      <c r="F6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8571,13 +8832,13 @@
         <v>266</v>
       </c>
       <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
         <v>268</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>269</v>
-      </c>
-      <c r="F7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8591,13 +8852,13 @@
         <v>272</v>
       </c>
       <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
         <v>271</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>270</v>
-      </c>
-      <c r="F8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8611,13 +8872,13 @@
         <v>274</v>
       </c>
       <c r="D9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
         <v>276</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>277</v>
-      </c>
-      <c r="F9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8631,13 +8892,13 @@
         <v>281</v>
       </c>
       <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
         <v>279</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>278</v>
-      </c>
-      <c r="F10" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8651,13 +8912,13 @@
         <v>285</v>
       </c>
       <c r="D11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" t="s">
         <v>283</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>282</v>
-      </c>
-      <c r="F11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8671,13 +8932,13 @@
         <v>286</v>
       </c>
       <c r="D12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" t="s">
         <v>288</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>289</v>
-      </c>
-      <c r="F12" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8691,13 +8952,13 @@
         <v>290</v>
       </c>
       <c r="D13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" t="s">
         <v>292</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>293</v>
-      </c>
-      <c r="F13" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8711,13 +8972,13 @@
         <v>294</v>
       </c>
       <c r="D14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" t="s">
         <v>296</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>297</v>
-      </c>
-      <c r="F14" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8731,13 +8992,13 @@
         <v>298</v>
       </c>
       <c r="D15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" t="s">
         <v>300</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>301</v>
-      </c>
-      <c r="F15" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8751,13 +9012,13 @@
         <v>302</v>
       </c>
       <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
         <v>304</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>305</v>
-      </c>
-      <c r="F16" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,13 +9032,13 @@
         <v>306</v>
       </c>
       <c r="D17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" t="s">
         <v>308</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>309</v>
-      </c>
-      <c r="F17" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8787,6 +9048,18 @@
       <c r="B18" t="s">
         <v>48</v>
       </c>
+      <c r="C18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -8795,6 +9068,18 @@
       <c r="B19" t="s">
         <v>49</v>
       </c>
+      <c r="C19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -8803,6 +9088,18 @@
       <c r="B20" t="s">
         <v>50</v>
       </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -8811,6 +9108,18 @@
       <c r="B21" t="s">
         <v>51</v>
       </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -8819,21 +9128,57 @@
       <c r="B22" t="s">
         <v>52</v>
       </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="30" t="s">
         <v>53</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="29" t="s">
         <v>54</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8843,21 +9188,57 @@
       <c r="B25" t="s">
         <v>55</v>
       </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="32" t="s">
         <v>56</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="31" t="s">
         <v>57</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8867,6 +9248,18 @@
       <c r="B28" t="s">
         <v>58</v>
       </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -8875,6 +9268,18 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -8883,6 +9288,18 @@
       <c r="B30" t="s">
         <v>60</v>
       </c>
+      <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -8891,6 +9308,18 @@
       <c r="B31" t="s">
         <v>61</v>
       </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -8899,6 +9328,18 @@
       <c r="B32" t="s">
         <v>62</v>
       </c>
+      <c r="C32" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -8907,6 +9348,18 @@
       <c r="B33" t="s">
         <v>63</v>
       </c>
+      <c r="C33" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -8915,6 +9368,18 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
+      <c r="C34" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -8923,6 +9388,18 @@
       <c r="B35" t="s">
         <v>65</v>
       </c>
+      <c r="C35" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -8931,6 +9408,18 @@
       <c r="B36" t="s">
         <v>66</v>
       </c>
+      <c r="C36" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -8939,6 +9428,18 @@
       <c r="B37" t="s">
         <v>67</v>
       </c>
+      <c r="C37" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -8947,6 +9448,18 @@
       <c r="B38" t="s">
         <v>68</v>
       </c>
+      <c r="C38" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -8955,6 +9468,18 @@
       <c r="B39" t="s">
         <v>69</v>
       </c>
+      <c r="C39" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -8963,6 +9488,18 @@
       <c r="B40" t="s">
         <v>70</v>
       </c>
+      <c r="C40" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -8971,6 +9508,18 @@
       <c r="B41" t="s">
         <v>71</v>
       </c>
+      <c r="C41" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -8979,6 +9528,18 @@
       <c r="B42" t="s">
         <v>72</v>
       </c>
+      <c r="C42" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -8987,6 +9548,18 @@
       <c r="B43" t="s">
         <v>73</v>
       </c>
+      <c r="C43" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -8995,6 +9568,18 @@
       <c r="B44" t="s">
         <v>74</v>
       </c>
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
+      <c r="D44" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" t="s">
+        <v>378</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -9003,6 +9588,18 @@
       <c r="B45" t="s">
         <v>75</v>
       </c>
+      <c r="C45" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -9015,13 +9612,13 @@
         <v>254</v>
       </c>
       <c r="D46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" t="s">
         <v>256</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>255</v>
-      </c>
-      <c r="F46" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
